--- a/物品说明/装备属性.xlsx
+++ b/物品说明/装备属性.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeKw\OneDrive\GameDocument\WAR3\JZZZ\Jass\物品说明\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="13_ncr:1_{16008B70-65B8-4483-9027-10115EC9625A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8489A14D-FA1F-43E5-B88B-CEA24B5F4575}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="114_{DED816DB-4760-4E87-BD14-354F7082F4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55E8C90C-A365-48B7-9526-0187FA1A037E}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3975" windowWidth="26430" windowHeight="10185" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">宝物!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">武器!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="418">
   <si>
     <t>名称</t>
   </si>
@@ -541,9 +542,6 @@
     <t>古锭刀</t>
   </si>
   <si>
-    <t>开山斧头</t>
-  </si>
-  <si>
     <t>日月乾坤轮</t>
   </si>
   <si>
@@ -595,18 +593,6 @@
     <t>黑羽扇</t>
   </si>
   <si>
-    <t>方天画戟</t>
-  </si>
-  <si>
-    <t>李广之弓</t>
-  </si>
-  <si>
-    <t>雌雄一对剑</t>
-  </si>
-  <si>
-    <t>青缸剑</t>
-  </si>
-  <si>
     <t>亮银梨花枪</t>
   </si>
   <si>
@@ -640,9 +626,6 @@
     <t>玄铁手戟</t>
   </si>
   <si>
-    <t>真青龙刀</t>
-  </si>
-  <si>
     <t>镇魂杖</t>
   </si>
   <si>
@@ -992,13 +975,334 @@
   </si>
   <si>
     <t>破旧的镜子</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>扇</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>特殊属性</t>
+  </si>
+  <si>
+    <t>多重</t>
+  </si>
+  <si>
+    <t>20%750冲击波</t>
+  </si>
+  <si>
+    <t>被打 几率咆哮 50回血 100% 攻击 70 护甲</t>
+  </si>
+  <si>
+    <t>20%陨石</t>
+  </si>
+  <si>
+    <t>35% 475</t>
+  </si>
+  <si>
+    <t>32% 600</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
+    <t>爆伤</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>30+(15)</t>
+  </si>
+  <si>
+    <t>范围15/10%速度光环</t>
+  </si>
+  <si>
+    <t xml:space="preserve">智力属性攻击 </t>
+  </si>
+  <si>
+    <t>32% 400</t>
+  </si>
+  <si>
+    <t>30% 闪避</t>
+  </si>
+  <si>
+    <t>破甲阵25</t>
+  </si>
+  <si>
+    <t>腐蚀之球-25</t>
+  </si>
+  <si>
+    <t>5%2.5s   晕</t>
+  </si>
+  <si>
+    <t>5%2.5s 晕</t>
+  </si>
+  <si>
+    <t>五行罩，必中暴击</t>
+  </si>
+  <si>
+    <t>20% 500</t>
+  </si>
+  <si>
+    <t>14% 350 晕1秒</t>
+  </si>
+  <si>
+    <t>200魔法</t>
+  </si>
+  <si>
+    <t>方天画戟1</t>
+  </si>
+  <si>
+    <t>方天画戟2</t>
+  </si>
+  <si>
+    <t>方天画戟3</t>
+  </si>
+  <si>
+    <t>李广之弓1</t>
+  </si>
+  <si>
+    <t>李广之弓2</t>
+  </si>
+  <si>
+    <t>李广之弓3</t>
+  </si>
+  <si>
+    <t>雌雄一对剑1</t>
+  </si>
+  <si>
+    <t>雌雄一对剑2</t>
+  </si>
+  <si>
+    <t>雌雄一对剑3</t>
+  </si>
+  <si>
+    <t>青缸剑1</t>
+  </si>
+  <si>
+    <t>青缸剑2</t>
+  </si>
+  <si>
+    <t>青缸剑3</t>
+  </si>
+  <si>
+    <t>青缸剑4</t>
+  </si>
+  <si>
+    <t>青缸剑5</t>
+  </si>
+  <si>
+    <t>40% 500</t>
+  </si>
+  <si>
+    <t>15% 反击</t>
+  </si>
+  <si>
+    <t>9% 15%生命值伤害</t>
+  </si>
+  <si>
+    <t>初级治疗术</t>
+  </si>
+  <si>
+    <t>高级治疗术</t>
+  </si>
+  <si>
+    <t>中级治疗术</t>
+  </si>
+  <si>
+    <t>15% 范围600 ，220必中伤害，50%额外经验获取</t>
+  </si>
+  <si>
+    <t>霜冻</t>
+  </si>
+  <si>
+    <t>36% 400+敏捷 霜冻</t>
+  </si>
+  <si>
+    <t>赵家 10%攻击，23%分裂</t>
+  </si>
+  <si>
+    <t>专属属性</t>
+  </si>
+  <si>
+    <t>20% 净化</t>
+  </si>
+  <si>
+    <t>分身</t>
+  </si>
+  <si>
+    <t>攻击烧蓝100</t>
+  </si>
+  <si>
+    <t>智力属性伤害</t>
+  </si>
+  <si>
+    <t>150+100%</t>
+  </si>
+  <si>
+    <t>枪/扇</t>
+  </si>
+  <si>
+    <t>35% 325</t>
+  </si>
+  <si>
+    <t>水神守护（2000/500/60护甲）</t>
+  </si>
+  <si>
+    <t>25% 770</t>
+  </si>
+  <si>
+    <t>5% 2.5s 晕/力量属性伤害</t>
+  </si>
+  <si>
+    <t>270+50%</t>
+  </si>
+  <si>
+    <t>毒-30%减速/100秒伤</t>
+  </si>
+  <si>
+    <t>10%2250伤害</t>
+  </si>
+  <si>
+    <t>10% 3.0s 晕</t>
+  </si>
+  <si>
+    <t>践踏 1000伤害</t>
+  </si>
+  <si>
+    <t>逆天-10% 2秒内物理伤害变法术</t>
+  </si>
+  <si>
+    <t>11% 缠绕</t>
+  </si>
+  <si>
+    <t>5%2.5秒</t>
+  </si>
+  <si>
+    <t>9% 禁锢</t>
+  </si>
+  <si>
+    <t>虚实之象 60%攻击力</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>真青龙刀1</t>
+  </si>
+  <si>
+    <t>真青龙刀2</t>
+  </si>
+  <si>
+    <t>真青龙刀3</t>
+  </si>
+  <si>
+    <t>沉睡</t>
+  </si>
+  <si>
+    <t>暴击0.1秒眩晕</t>
+  </si>
+  <si>
+    <t>毒-40点持续，25减速</t>
+  </si>
+  <si>
+    <t>暗杀</t>
+  </si>
+  <si>
+    <t>260+40%</t>
+  </si>
+  <si>
+    <t>必中，50减甲</t>
+  </si>
+  <si>
+    <t>25%回蓝</t>
+  </si>
+  <si>
+    <t>9%束缚</t>
+  </si>
+  <si>
+    <t>封禁之术/使用法术范围智力伤害</t>
+  </si>
+  <si>
+    <t>加强法力燃烧</t>
+  </si>
+  <si>
+    <t>对诅咒单位额外智力属性伤害</t>
+  </si>
+  <si>
+    <t>25% 700</t>
+  </si>
+  <si>
+    <t>星坠术-3倍智力</t>
+  </si>
+  <si>
+    <t>20%法术暴击/智力属性伤害</t>
+  </si>
+  <si>
+    <t>净化-4倍智力</t>
+  </si>
+  <si>
+    <t>25%闪电链3倍智力</t>
+  </si>
+  <si>
+    <t>100+1%</t>
+  </si>
+  <si>
+    <t>1%目标生命值伤害</t>
+  </si>
+  <si>
+    <t>60% 600</t>
+  </si>
+  <si>
+    <t>问天枪</t>
+  </si>
+  <si>
+    <t>几率40减甲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30% 300 </t>
+  </si>
+  <si>
+    <t>13% 1500+智力+敏捷</t>
+  </si>
+  <si>
+    <t>330+50%</t>
+  </si>
+  <si>
+    <t>5% 2.5s 晕/力量属性伤害/45减甲</t>
+  </si>
+  <si>
+    <t>几率开天辟地</t>
+  </si>
+  <si>
+    <t>吕布独占</t>
+  </si>
+  <si>
+    <t>张辽独占/腐蚀-60护甲</t>
+  </si>
+  <si>
+    <t>开山斧</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,8 +1323,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1341,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1042,19 +1358,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1069,6 +1389,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E22CD298-ECD9-4524-ADB6-AADBC4C7F007}" name="表1" displayName="表1" ref="A1:K13" totalsRowShown="0">
+  <autoFilter ref="A1:K13" xr:uid="{06906A43-4895-4DC3-B1C5-32499B96E1A1}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A224AED0-5F50-4E44-A81F-2808CAC296BB}" name="名称"/>
+    <tableColumn id="2" xr3:uid="{6DA576A4-2578-4C1B-85FC-9667E0BF6A14}" name="回血速度"/>
+    <tableColumn id="3" xr3:uid="{1C7C9F70-7EE4-4D89-BE00-8504D00A6659}" name="魔抗"/>
+    <tableColumn id="4" xr3:uid="{C1F9E996-EA27-4BB0-8460-FFC32B0E780D}" name="生命值"/>
+    <tableColumn id="5" xr3:uid="{950CFD97-81C3-437D-A7DC-2E32972128F3}" name="力量"/>
+    <tableColumn id="6" xr3:uid="{1E6BE1E2-696D-42BF-9BF2-8CCA7C8FEB3C}" name="敏捷"/>
+    <tableColumn id="7" xr3:uid="{6F4E8A18-2522-436A-AC07-FC5F22B4D10B}" name="智力"/>
+    <tableColumn id="8" xr3:uid="{1CDFA7C8-6FC7-4E3A-A358-A6F0508B4385}" name="特殊"/>
+    <tableColumn id="9" xr3:uid="{386B5466-BA61-4875-8469-885366D07C74}" name="特殊2"/>
+    <tableColumn id="10" xr3:uid="{F80A324F-D208-4869-9BF8-564A0F52C06B}" name="稀有度"/>
+    <tableColumn id="11" xr3:uid="{B410E1AE-B518-42B9-8024-B742E75E8695}" name="类别"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1334,365 +1674,2058 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3B3576-1ED5-41A0-B52F-B95CDFD12A91}">
-  <dimension ref="A2:A71"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="48" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Q5">
+        <v>80</v>
+      </c>
+      <c r="T5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P6">
+        <v>120</v>
+      </c>
+      <c r="Q6">
+        <v>120</v>
+      </c>
+      <c r="R6">
+        <v>120</v>
+      </c>
+      <c r="S6" t="s">
+        <v>331</v>
+      </c>
+      <c r="T6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>65</v>
+      </c>
+      <c r="T7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>1500</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
+        <v>50</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="S9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10">
+        <v>180</v>
+      </c>
+      <c r="J10">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11">
+        <v>270</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
+      </c>
+      <c r="S11" t="s">
+        <v>358</v>
+      </c>
+      <c r="T11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15">
+        <v>180</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16">
+        <v>231</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J16">
+        <v>65</v>
+      </c>
+      <c r="Q16">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>45</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19">
+        <v>180</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>65</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>30</v>
+      </c>
+      <c r="R19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20">
+        <v>180</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>65</v>
+      </c>
+      <c r="Q20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="Q21">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22">
+        <v>231</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>65</v>
+      </c>
+      <c r="S22" t="s">
+        <v>367</v>
+      </c>
+      <c r="T22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="4">
+        <v>888</v>
+      </c>
+      <c r="J23">
+        <v>65</v>
+      </c>
+      <c r="S23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" t="s">
+        <v>405</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="P24">
+        <v>90</v>
+      </c>
+      <c r="Q24">
+        <v>90</v>
+      </c>
+      <c r="R24">
+        <v>90</v>
+      </c>
+      <c r="S24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>180</v>
+      </c>
+      <c r="Q26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>180</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="Q27">
+        <v>50</v>
+      </c>
+      <c r="S27" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>165</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>180</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>180</v>
+      </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>100</v>
+      </c>
+      <c r="S32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>180</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" t="s">
+        <v>393</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P34">
+        <v>30</v>
+      </c>
+      <c r="Q34">
+        <v>30</v>
+      </c>
+      <c r="R34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" t="s">
+        <v>395</v>
+      </c>
+      <c r="F35">
+        <v>150</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35">
+        <v>20</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36">
+        <v>250</v>
+      </c>
+      <c r="P36">
+        <v>30</v>
+      </c>
+      <c r="Q36">
+        <v>30</v>
+      </c>
+      <c r="R36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P37">
+        <v>50</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+      <c r="R37">
+        <v>50</v>
+      </c>
+      <c r="S37" t="s">
+        <v>396</v>
+      </c>
+      <c r="T37" t="s">
+        <v>397</v>
+      </c>
+      <c r="U37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>313</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>313</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>80</v>
+      </c>
+      <c r="R39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="P40">
+        <v>40</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P41">
+        <v>30</v>
+      </c>
+      <c r="Q41">
+        <v>30</v>
+      </c>
+      <c r="R41">
+        <v>30</v>
+      </c>
+      <c r="S41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D42" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>60</v>
+      </c>
+      <c r="Q42">
+        <v>60</v>
+      </c>
+      <c r="R42">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D43" t="s">
+        <v>399</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P43">
+        <v>80</v>
+      </c>
+      <c r="Q43">
+        <v>80</v>
+      </c>
+      <c r="R43">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P44">
+        <v>80</v>
+      </c>
+      <c r="Q44">
+        <v>80</v>
+      </c>
+      <c r="R44">
+        <v>120</v>
+      </c>
+      <c r="S44" t="s">
+        <v>400</v>
+      </c>
+      <c r="T44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" t="s">
+        <v>402</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="O45">
+        <v>1000</v>
+      </c>
+      <c r="P45">
+        <v>70</v>
+      </c>
+      <c r="Q45">
+        <v>70</v>
+      </c>
+      <c r="R45">
+        <v>70</v>
+      </c>
+      <c r="S45" t="s">
+        <v>404</v>
+      </c>
+      <c r="T45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" t="s">
+        <v>335</v>
+      </c>
+      <c r="F46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47">
+        <v>120</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="P47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>417</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48">
+        <v>270</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="P48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49">
+        <v>330</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P49">
+        <v>30</v>
+      </c>
+      <c r="S49" t="s">
+        <v>319</v>
+      </c>
+      <c r="T49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="P50">
+        <v>60</v>
+      </c>
+      <c r="S50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" t="s">
+        <v>378</v>
+      </c>
+      <c r="P51">
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <v>50</v>
+      </c>
+      <c r="S51" t="s">
+        <v>377</v>
+      </c>
+      <c r="T51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" t="s">
+        <v>382</v>
+      </c>
+      <c r="F52">
+        <v>240</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>30</v>
+      </c>
+      <c r="Q52">
+        <v>30</v>
+      </c>
+      <c r="R52">
+        <v>30</v>
+      </c>
+      <c r="S52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" t="s">
+        <v>413</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+      <c r="P53">
+        <v>60</v>
+      </c>
+      <c r="S53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54">
+        <v>-4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" t="s">
+        <v>416</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I54" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J54">
+        <v>45</v>
+      </c>
+      <c r="P54">
+        <v>20</v>
+      </c>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55">
+        <v>-4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>315</v>
+      </c>
+      <c r="D55" t="s">
+        <v>415</v>
+      </c>
+      <c r="F55">
+        <v>1875</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I55" s="2">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>30</v>
+      </c>
+      <c r="Q55">
+        <v>30</v>
+      </c>
+      <c r="R55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>315</v>
+      </c>
+      <c r="F56">
+        <v>120</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57">
+        <v>180</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>342</v>
+      </c>
+      <c r="B58">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>315</v>
+      </c>
+      <c r="F58">
+        <v>200</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I58" s="2">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s">
+        <v>354</v>
+      </c>
+      <c r="T58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>388</v>
+      </c>
+      <c r="B59">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>315</v>
+      </c>
+      <c r="F59">
+        <v>200</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5</v>
+      </c>
+      <c r="P59">
+        <v>40</v>
+      </c>
+      <c r="Q59">
+        <v>40</v>
+      </c>
+      <c r="R59">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>315</v>
+      </c>
+      <c r="F60">
+        <v>120</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61">
+        <v>180</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>315</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64">
+        <v>215</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="J64">
+        <v>30</v>
+      </c>
+      <c r="S64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65">
+        <v>180</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I65" s="2">
+        <v>3</v>
+      </c>
+      <c r="S65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66">
+        <v>231</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>20</v>
+      </c>
+      <c r="Q66">
+        <v>20</v>
+      </c>
+      <c r="R66">
+        <v>20</v>
+      </c>
+      <c r="S66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>315</v>
+      </c>
+      <c r="D67" t="s">
+        <v>328</v>
+      </c>
+      <c r="F67">
+        <v>215</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I67" s="2">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>327</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P67">
+        <v>20</v>
+      </c>
+      <c r="Q67">
+        <v>20</v>
+      </c>
+      <c r="R67">
+        <v>20</v>
+      </c>
+      <c r="S67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68">
+        <v>205</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I68" s="2">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>30</v>
+      </c>
+      <c r="P68">
+        <v>20</v>
+      </c>
+      <c r="Q68">
+        <v>20</v>
+      </c>
+      <c r="R68">
+        <v>20</v>
+      </c>
+      <c r="S68" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>315</v>
+      </c>
+      <c r="D69" t="s">
+        <v>409</v>
+      </c>
+      <c r="F69">
+        <v>255</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I69" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J69">
+        <v>45</v>
+      </c>
+      <c r="P69">
+        <v>30</v>
+      </c>
+      <c r="Q69">
+        <v>30</v>
+      </c>
+      <c r="R69">
+        <v>30</v>
+      </c>
+      <c r="S69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>315</v>
+      </c>
+      <c r="F70">
+        <v>210</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I70" s="2">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>30</v>
+      </c>
+      <c r="P70">
+        <v>20</v>
+      </c>
+      <c r="Q70">
+        <v>20</v>
+      </c>
+      <c r="R70">
+        <v>20</v>
+      </c>
+      <c r="S70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C71" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71">
+        <v>250</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P71">
+        <v>20</v>
+      </c>
+      <c r="Q71">
+        <v>20</v>
+      </c>
+      <c r="R71">
+        <v>50</v>
+      </c>
+      <c r="S71" t="s">
+        <v>365</v>
+      </c>
+      <c r="U71" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>212</v>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" t="s">
+        <v>369</v>
+      </c>
+      <c r="P72">
+        <v>50</v>
+      </c>
+      <c r="Q72">
+        <v>50</v>
+      </c>
+      <c r="R72">
+        <v>50</v>
+      </c>
+      <c r="S72" t="s">
+        <v>371</v>
+      </c>
+      <c r="T72" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{EA0CAC8C-1C13-4A9E-88C6-60568AA74026}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U74">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1701,7 +3734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -2306,15 +4339,17 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,13 +4609,13 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>73</v>
@@ -2600,13 +4635,13 @@
         <v>63</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
@@ -2623,13 +4658,13 @@
         <v>64</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
         <v>68</v>
@@ -2644,32 +4679,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="4">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4">
         <v>2000</v>
       </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4">
+        <v>50</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2678,6 +4713,9 @@
     <sortCondition ref="J1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2685,9 +4723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE30FED-F54A-4A15-B514-470C058DE785}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,7 +4734,7 @@
     <col min="4" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
     <col min="15" max="15" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2711,13 +4749,13 @@
         <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -2726,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
@@ -2755,7 +4793,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -2767,7 +4805,7 @@
         <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2778,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -2787,10 +4825,10 @@
         <v>45</v>
       </c>
       <c r="N3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" t="s">
         <v>235</v>
-      </c>
-      <c r="O3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2801,7 +4839,7 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K4">
         <v>30</v>
@@ -2821,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -2839,7 +4877,7 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2850,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I6" s="2">
         <v>0.01</v>
@@ -2864,7 +4902,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -2876,7 +4914,7 @@
         <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2959,7 +4997,7 @@
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O11" t="s">
         <v>71</v>
@@ -2991,7 +5029,7 @@
         <v>50</v>
       </c>
       <c r="N12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3020,7 +5058,7 @@
         <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3043,7 +5081,7 @@
         <v>1500</v>
       </c>
       <c r="N14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3054,7 +5092,7 @@
         <v>-1</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G15">
         <v>26</v>
@@ -3063,10 +5101,10 @@
         <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3077,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3091,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -3111,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -3132,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3143,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -3158,10 +5196,10 @@
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3172,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E20">
         <v>25</v>
@@ -3187,7 +5225,7 @@
         <v>1500</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3198,7 +5236,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G21">
         <v>28</v>
@@ -3227,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -3244,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D23">
         <v>80</v>
@@ -3255,13 +5293,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D24">
         <v>120</v>
@@ -3279,7 +5317,7 @@
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3290,7 +5328,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D25">
         <v>120</v>
@@ -3308,7 +5346,7 @@
         <v>30</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3319,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -3339,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -3354,10 +5392,10 @@
         <v>30</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3368,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -3386,7 +5424,7 @@
         <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3397,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F29">
         <v>60</v>
@@ -3414,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F30">
         <v>60</v>
@@ -3434,13 +5472,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F31">
         <v>120</v>
@@ -3466,7 +5504,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F32">
         <v>120</v>
@@ -3489,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F33">
         <v>240</v>
@@ -3507,11 +5545,12 @@
         <v>60</v>
       </c>
       <c r="N33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O34">
+  <autoFilter ref="A1:O1" xr:uid="{9445E15A-C22D-4AA9-8D98-9CC0E13A66CE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O33">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3540,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
         <v>52</v>
@@ -3552,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -3590,13 +5629,13 @@
         <v>1500</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L2">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3604,22 +5643,22 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3636,13 +5675,13 @@
         <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3659,13 +5698,13 @@
         <v>1000</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3688,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3705,13 +5744,13 @@
         <v>1000</v>
       </c>
       <c r="J7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3734,13 +5773,13 @@
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3757,13 +5796,13 @@
         <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3780,13 +5819,13 @@
         <v>1500</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3809,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3832,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3849,13 +5888,13 @@
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3872,13 +5911,13 @@
         <v>1500</v>
       </c>
       <c r="J14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3895,13 +5934,13 @@
         <v>1500</v>
       </c>
       <c r="J15" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3921,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3941,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3961,12 +6000,12 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B19">
         <v>120</v>
@@ -3990,12 +6029,12 @@
         <v>-1</v>
       </c>
       <c r="M19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B20">
         <v>120</v>
@@ -4019,12 +6058,12 @@
         <v>-1</v>
       </c>
       <c r="M20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B21">
         <v>180</v>
@@ -4048,12 +6087,12 @@
         <v>-1</v>
       </c>
       <c r="M21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B22">
         <v>180</v>
@@ -4077,12 +6116,12 @@
         <v>-1</v>
       </c>
       <c r="M22" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B23">
         <v>240</v>
@@ -4106,7 +6145,7 @@
         <v>-1</v>
       </c>
       <c r="M23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4122,9 +6161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBDB272-7D20-4EC6-956D-8AC1454C1A3A}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,13 +6184,13 @@
         <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -4160,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
@@ -4189,7 +6228,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -4204,7 +6243,7 @@
         <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4230,7 +6269,7 @@
         <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4241,13 +6280,13 @@
         <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -4267,7 +6306,7 @@
         <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4278,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4303,7 +6342,7 @@
         <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4328,7 +6367,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -4343,24 +6382,24 @@
         <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J11">
         <v>500</v>
@@ -4369,18 +6408,18 @@
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>-1</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J12">
         <v>1000</v>
@@ -4395,18 +6434,18 @@
         <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J13">
         <v>1500</v>
@@ -4421,7 +6460,7 @@
         <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4432,7 +6471,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K14">
         <v>50</v>
@@ -4452,7 +6491,7 @@
         <v>-3</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H15">
         <v>33</v>
@@ -4461,10 +6500,10 @@
         <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4475,7 +6514,7 @@
         <v>-3</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G16">
         <v>30</v>
@@ -4487,7 +6526,7 @@
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4498,7 +6537,7 @@
         <v>-3</v>
       </c>
       <c r="C17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E17">
         <v>65</v>
@@ -4507,7 +6546,7 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4518,7 +6557,7 @@
         <v>-3</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K18">
         <v>50</v>
@@ -4530,10 +6569,10 @@
         <v>50</v>
       </c>
       <c r="N18" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O18" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4544,10 +6583,10 @@
         <v>-2</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N19" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -4558,7 +6597,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K20">
         <v>50</v>
@@ -4570,10 +6609,10 @@
         <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O20" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4584,7 +6623,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K21">
         <v>50</v>
@@ -4596,10 +6635,10 @@
         <v>50</v>
       </c>
       <c r="N21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4610,7 +6649,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H22">
         <v>33</v>
@@ -4625,7 +6664,7 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4648,7 +6687,7 @@
         <v>50</v>
       </c>
       <c r="N23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4659,7 +6698,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -4674,10 +6713,10 @@
         <v>50</v>
       </c>
       <c r="N24" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O24" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4688,7 +6727,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H25">
         <v>66</v>
@@ -4703,10 +6742,10 @@
         <v>50</v>
       </c>
       <c r="N25" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O25" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4717,7 +6756,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J26">
         <v>1500</v>
@@ -4732,7 +6771,7 @@
         <v>50</v>
       </c>
       <c r="N26" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4743,7 +6782,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I27">
         <v>75</v>
@@ -4761,7 +6800,7 @@
         <v>50</v>
       </c>
       <c r="N27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4772,7 +6811,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -4784,10 +6823,10 @@
         <v>30</v>
       </c>
       <c r="N28" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O28" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4810,10 +6849,10 @@
         <v>50</v>
       </c>
       <c r="N29" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4833,7 +6872,7 @@
         <v>50</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
         <v>151</v>
@@ -4847,7 +6886,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H31">
         <v>33</v>
@@ -4862,13 +6901,13 @@
         <v>120</v>
       </c>
       <c r="N31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P31" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4876,7 +6915,7 @@
         <v>153</v>
       </c>
       <c r="N32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -4896,10 +6935,10 @@
         <v>30</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -4919,7 +6958,7 @@
         <v>50</v>
       </c>
       <c r="N34" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s">
         <v>155</v>
@@ -4933,7 +6972,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -4942,18 +6981,18 @@
         <v>50</v>
       </c>
       <c r="O35" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M36">
         <v>20</v>
@@ -4961,13 +7000,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K37">
         <v>10</v>
@@ -4981,13 +7020,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L38">
         <v>20</v>
@@ -4995,13 +7034,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K39">
         <v>20</v>
@@ -5015,13 +7054,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K40">
         <v>20</v>
@@ -5029,13 +7068,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K41">
         <v>30</v>
@@ -5047,21 +7086,21 @@
         <v>30</v>
       </c>
       <c r="N41" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B42">
         <v>-2</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
